--- a/medicine/Mort/Ossuaire_du_Saint/Ossuaire_du_Saint.xlsx
+++ b/medicine/Mort/Ossuaire_du_Saint/Ossuaire_du_Saint.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ossuaire du Saint est un ossuaire situé dans la commune de Le Saint, dans le Morbihan, en France.
 </t>
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ossuaire est accolé à l'église Saint-Samuel, dans son extrémité sud-ouest, au sud du clocher[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ossuaire est accolé à l'église Saint-Samuel, dans son extrémité sud-ouest, au sud du clocher.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ossuaire est construit dans le courant du XVIe siècle[1], à la même époque que l'église (datée de 1575)[2].
-L'ossuaire fait l'objet d'une inscription au titre des monuments historiques par l'arrêté du 13 janvier 1937[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ossuaire est construit dans le courant du XVIe siècle, à la même époque que l'église (datée de 1575).
+L'ossuaire fait l'objet d'une inscription au titre des monuments historiques par l'arrêté du 13 janvier 1937.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ossuaire est adossé au mur sud de l'église[1]. Il se présente comme un édicule, bâti en granite local[1], dont le toit d'ardoises prolonge celui de l'église[1]. Quatre fenêtres à lobes, occupant une grande baie méridionale, s'ouvrent dans le mur[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ossuaire est adossé au mur sud de l'église. Il se présente comme un édicule, bâti en granite local, dont le toit d'ardoises prolonge celui de l'église. Quatre fenêtres à lobes, occupant une grande baie méridionale, s'ouvrent dans le mur.
 </t>
         </is>
       </c>
